--- a/auto/config/twzw/project.xlsx
+++ b/auto/config/twzw/project.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ads-page\auto\config\twzw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="20161103 " sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>包号</t>
   </si>
@@ -39,51 +44,12 @@
   <si>
     <t>投放时间</t>
   </si>
-  <si>
-    <t>longyu_twzw_102_1.16.0_210</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_26B.html</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>应用下载类</t>
-  </si>
-  <si>
-    <t>longyu_twzw_103_1.16.0_210</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_26C.html</t>
-  </si>
-  <si>
-    <t>longyu_twzw_104_1.16.0_210</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_26G.html</t>
-  </si>
-  <si>
-    <t>longyu_twzw_105_1.16.0_210</t>
-  </si>
-  <si>
-    <t>http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_20Q.html</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,150 +82,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,194 +101,8 @@
         <bgColor theme="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -478,251 +121,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,7 +143,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -749,58 +153,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1099,17 +465,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="70.375" style="2" customWidth="1"/>
@@ -1121,7 +485,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,31 +511,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16384">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.458333333333333</v>
-      </c>
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="6"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -17549,31 +16892,10 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" spans="1:16384">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.458333333333333</v>
-      </c>
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -33951,31 +33273,10 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:16384">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.458333333333333</v>
-      </c>
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -50353,31 +49654,10 @@
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:16384">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.458333333333333</v>
-      </c>
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -66756,17 +66036,14 @@
       <c r="XFD5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 D2 F2 G2 C3 D3 F3 G3 C4 D4 F4 G4 C5 D5 F5 G5">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2" display="http://res.digitcube.net/ads-page/swipe/index-aibei_twzw_26B.html"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
